--- a/results/fa-ml-optimization.xlsx
+++ b/results/fa-ml-optimization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23E4100-21B4-4812-B177-A4CC932F5E90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03043AA-72CB-479F-B00A-8442F4D4A5F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,12 +98,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -198,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -225,6 +231,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +524,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,26 +652,26 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="15">
         <v>-141.64070000000001</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="15">
         <v>0.6224172</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="15">
         <v>6.0620729999999998E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="15">
         <v>120.0774</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="16">
         <v>9.7142379999999999E-6</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="17">
         <v>0.11435299</v>
       </c>
     </row>

--- a/results/fa-ml-optimization.xlsx
+++ b/results/fa-ml-optimization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03043AA-72CB-479F-B00A-8442F4D4A5F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB0B1D2-E05F-49A8-9FE8-74B33DAAA59F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Factors</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>TLI</t>
-  </si>
-  <si>
-    <t>LOW</t>
   </si>
   <si>
     <t>rms</t>
@@ -60,17 +57,23 @@
     <t>RMSEA</t>
   </si>
   <si>
-    <t>.9 &lt;</t>
+    <t>objective</t>
   </si>
   <si>
-    <t>.08 &gt;</t>
+    <t>EBIC</t>
+  </si>
+  <si>
+    <t>dof</t>
+  </si>
+  <si>
+    <t>chi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,22 +100,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -161,15 +174,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -179,10 +183,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -190,7 +194,72 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -204,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -215,30 +284,42 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,75 +617,87 @@
     <col min="6" max="6" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="I2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="J2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="B3" s="10">
         <v>-193.23580000000001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="10">
         <v>0.47217409999999999</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="10">
         <v>0.104209</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="10">
         <v>248.6815</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="11">
         <v>4.6149060000000003E-14</v>
       </c>
       <c r="G3" s="10">
+        <v>3.875556</v>
+      </c>
+      <c r="H3" s="10">
+        <v>-226.29079999999999</v>
+      </c>
+      <c r="I3" s="10">
+        <v>103</v>
+      </c>
+      <c r="J3" s="10">
+        <v>215.62649999999999</v>
+      </c>
+      <c r="K3" s="12">
         <v>0.1385094</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
         <f>A3+1</f>
         <v>3</v>
       </c>
@@ -623,12 +716,24 @@
       <c r="F4" s="3">
         <v>8.8285820000000004E-11</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="2">
+        <v>3.159929</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-241.79329999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>88</v>
+      </c>
+      <c r="J4" s="2">
+        <v>135.7671</v>
+      </c>
+      <c r="K4" s="8">
         <v>0.13170570000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
         <f t="shared" ref="A5:A10" si="0">A4+1</f>
         <v>4</v>
       </c>
@@ -647,36 +752,60 @@
       <c r="F5" s="3">
         <v>1.818802E-8</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="2">
+        <v>2.571161</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-212.6542</v>
+      </c>
+      <c r="I5" s="2">
+        <v>74</v>
+      </c>
+      <c r="J5" s="2">
+        <v>104.8398</v>
+      </c>
+      <c r="K5" s="8">
         <v>0.12656049999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="21">
         <v>-141.64070000000001</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="21">
         <v>0.6224172</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="21">
         <v>6.0620729999999998E-2</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="21">
         <v>120.0774</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="22">
         <v>9.7142379999999999E-6</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="21">
+        <v>1.9315389999999999</v>
+      </c>
+      <c r="H6" s="21">
+        <v>-188.74969999999999</v>
+      </c>
+      <c r="I6" s="21">
+        <v>61</v>
+      </c>
+      <c r="J6" s="21">
+        <v>72.968289999999996</v>
+      </c>
+      <c r="K6" s="23">
         <v>0.11435299</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -695,12 +824,24 @@
       <c r="F7" s="2">
         <v>2.172846E-4</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="2">
+        <v>1.4890639999999999</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-142.8058</v>
+      </c>
+      <c r="I7" s="2">
+        <v>49</v>
+      </c>
+      <c r="J7" s="2">
+        <v>67.426689999999994</v>
+      </c>
+      <c r="K7" s="8">
         <v>0.1082259</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -719,12 +860,24 @@
       <c r="F8" s="2">
         <v>3.7328639999999998E-3</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="2">
+        <v>1.075258</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-120.0189</v>
+      </c>
+      <c r="I8" s="2">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2">
+        <v>43.018590000000003</v>
+      </c>
+      <c r="K8" s="8">
         <v>9.8444589999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -743,12 +896,24 @@
       <c r="F9" s="2">
         <v>3.5530069999999997E-2</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="2">
+        <v>0.71314040000000001</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-95.384469999999993</v>
+      </c>
+      <c r="I9" s="2">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2">
+        <v>24.7484</v>
+      </c>
+      <c r="K9" s="8">
         <v>8.4278889999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -767,61 +932,89 @@
       <c r="F10" s="2">
         <v>0.16986409999999999</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="2">
+        <v>0.4155123</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-70.887979999999999</v>
+      </c>
+      <c r="I10" s="2">
+        <v>19</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10.630750000000001</v>
+      </c>
+      <c r="K10" s="8">
         <v>6.2736749999999994E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
         <f>A10+1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>-37.689549999999997</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>1.0572349999999999</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1.7298089999999999E-2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>9.5055019999999999</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>0.57533710000000005</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="4">
+        <v>0.1615666</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-41.25367</v>
+      </c>
+      <c r="I11" s="4">
+        <v>11</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5.9413869999999998</v>
+      </c>
+      <c r="K11" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
     </row>
   </sheetData>

--- a/results/fa-ml-optimization.xlsx
+++ b/results/fa-ml-optimization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB0B1D2-E05F-49A8-9FE8-74B33DAAA59F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FEFBEA-21C6-48B8-A077-79E46964A4B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,7 +605,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/results/fa-ml-optimization.xlsx
+++ b/results/fa-ml-optimization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FEFBEA-21C6-48B8-A077-79E46964A4B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70708EC6-B42D-42CB-9A82-7EECDA66E561}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ml method" sheetId="1" r:id="rId1"/>
@@ -73,6 +73,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -290,19 +293,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -319,7 +313,40 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,7 +632,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,6 +642,7 @@
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -627,360 +655,360 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="28">
         <v>-193.23580000000001</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="20">
         <v>0.47217409999999999</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="20">
         <v>0.104209</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="28">
         <v>248.6815</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>4.6149060000000003E-14</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="28">
         <v>3.875556</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="28">
         <v>-226.29079999999999</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <v>103</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="28">
         <v>215.62649999999999</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="21">
         <v>0.1385094</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+      <c r="A4" s="15">
         <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="29">
         <v>-176.9049</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="22">
         <v>0.51534380000000002</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="22">
         <v>8.2689700000000005E-2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="29">
         <v>200.65549999999999</v>
       </c>
       <c r="F4" s="3">
         <v>8.8285820000000004E-11</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="29">
         <v>3.159929</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="29">
         <v>-241.79329999999999</v>
       </c>
       <c r="I4" s="2">
         <v>88</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="29">
         <v>135.7671</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="23">
         <v>0.13170570000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+      <c r="A5" s="15">
         <f t="shared" ref="A5:A10" si="0">A4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="29">
         <v>-155.93940000000001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="22">
         <v>0.54549049999999999</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="22">
         <v>7.2663649999999996E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="29">
         <v>161.55459999999999</v>
       </c>
       <c r="F5" s="3">
         <v>1.818802E-8</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="29">
         <v>2.571161</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="29">
         <v>-212.6542</v>
       </c>
       <c r="I5" s="2">
         <v>74</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="29">
         <v>104.8398</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="23">
         <v>0.12656049999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+      <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="30">
         <v>-141.64070000000001</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="24">
         <v>0.6224172</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="24">
         <v>6.0620729999999998E-2</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="30">
         <v>120.0774</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="19">
         <v>9.7142379999999999E-6</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="30">
         <v>1.9315389999999999</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="30">
         <v>-188.74969999999999</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="18">
         <v>61</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="30">
         <v>72.968289999999996</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="25">
         <v>0.11435299</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+      <c r="A7" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="29">
         <v>-118.6551</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="22">
         <v>0.65610489999999999</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="22">
         <v>5.8273360000000003E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="29">
         <v>91.57741</v>
       </c>
       <c r="F7" s="2">
         <v>2.172846E-4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="29">
         <v>1.4890639999999999</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="29">
         <v>-142.8058</v>
       </c>
       <c r="I7" s="2">
         <v>49</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="29">
         <v>67.426689999999994</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="23">
         <v>0.1082259</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="A8" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="29">
         <v>-97.625910000000005</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="22">
         <v>0.7101229</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="22">
         <v>4.6545980000000001E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="29">
         <v>65.411550000000005</v>
       </c>
       <c r="F8" s="2">
         <v>3.7328639999999998E-3</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="29">
         <v>1.075258</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="29">
         <v>-120.0189</v>
       </c>
       <c r="I8" s="2">
         <v>38</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="29">
         <v>43.018590000000003</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="23">
         <v>9.8444589999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="29">
         <v>-77.225579999999994</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="22">
         <v>0.78271579999999996</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="22">
         <v>3.5304309999999998E-2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="29">
         <v>42.90728</v>
       </c>
       <c r="F9" s="2">
         <v>3.5530069999999997E-2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="29">
         <v>0.71314040000000001</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="29">
         <v>-95.384469999999993</v>
       </c>
       <c r="I9" s="2">
         <v>28</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="29">
         <v>24.7484</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="23">
         <v>8.4278889999999995E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="29">
         <v>-56.795749999999998</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="22">
         <v>0.87512199999999996</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="22">
         <v>2.3138539999999999E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="29">
         <v>24.72298</v>
       </c>
       <c r="F10" s="2">
         <v>0.16986409999999999</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="29">
         <v>0.4155123</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="29">
         <v>-70.887979999999999</v>
       </c>
       <c r="I10" s="2">
         <v>19</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="29">
         <v>10.630750000000001</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="23">
         <v>6.2736749999999994E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="16">
         <f>A10+1</f>
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="31">
         <v>-37.689549999999997</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="26">
         <v>1.0572349999999999</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="26">
         <v>1.7298089999999999E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="31">
         <v>9.5055019999999999</v>
       </c>
       <c r="F11" s="4">
         <v>0.57533710000000005</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="31">
         <v>0.1615666</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="31">
         <v>-41.25367</v>
       </c>
       <c r="I11" s="4">
         <v>11</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="31">
         <v>5.9413869999999998</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="27">
         <v>0</v>
       </c>
     </row>

--- a/results/fa-ml-optimization.xlsx
+++ b/results/fa-ml-optimization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70708EC6-B42D-42CB-9A82-7EECDA66E561}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDDD01E-B8FE-4D54-BBCD-84CE87E97530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ml method" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -74,9 +96,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +141,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -276,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -313,28 +343,28 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -348,6 +378,24 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,7 +810,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
-        <f t="shared" ref="A5:A10" si="0">A4+1</f>
+        <f t="shared" ref="A5:K10" si="0">A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="29">
@@ -1016,34 +1064,357 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
+      <c r="A13" s="36" t="str" cm="1">
+        <f t="array" ref="A13:J23">TRANSPOSE(A2:K11)</f>
+        <v>Factors</v>
+      </c>
+      <c r="B13" s="34">
+        <v>2</v>
+      </c>
+      <c r="C13" s="34">
+        <v>3</v>
+      </c>
+      <c r="D13" s="35">
+        <v>4</v>
+      </c>
+      <c r="E13" s="34">
+        <v>5</v>
+      </c>
+      <c r="F13" s="34">
+        <v>6</v>
+      </c>
+      <c r="G13" s="34">
+        <v>7</v>
+      </c>
+      <c r="H13" s="34">
+        <v>8</v>
+      </c>
+      <c r="I13" s="34">
+        <v>9</v>
+      </c>
+      <c r="J13" s="34">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="37" t="str">
+        <v>BIC</v>
+      </c>
+      <c r="B14" s="33">
+        <v>-193.23580000000001</v>
+      </c>
+      <c r="C14" s="33">
+        <v>-176.9049</v>
+      </c>
+      <c r="D14" s="32">
+        <v>-155.93940000000001</v>
+      </c>
+      <c r="E14" s="33">
+        <v>-141.64070000000001</v>
+      </c>
+      <c r="F14" s="32">
+        <v>-118.6551</v>
+      </c>
+      <c r="G14" s="33">
+        <v>-97.625910000000005</v>
+      </c>
+      <c r="H14" s="33">
+        <v>-77.225579999999994</v>
+      </c>
+      <c r="I14" s="33">
+        <v>-56.795749999999998</v>
+      </c>
+      <c r="J14" s="33">
+        <v>-37.689549999999997</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="37" t="str">
+        <v>TLI</v>
+      </c>
+      <c r="B15" s="33">
+        <v>0.47217409999999999</v>
+      </c>
+      <c r="C15" s="32">
+        <v>0.51534380000000002</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0.54549049999999999</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0.6224172</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0.65610489999999999</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0.7101229</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0.78271579999999996</v>
+      </c>
+      <c r="I15" s="33">
+        <v>0.87512199999999996</v>
+      </c>
+      <c r="J15" s="33">
+        <v>1.0572349999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
+      <c r="A16" s="37" t="str">
+        <v>rms</v>
+      </c>
+      <c r="B16" s="33">
+        <v>0.104209</v>
+      </c>
+      <c r="C16" s="32">
+        <v>8.2689700000000005E-2</v>
+      </c>
+      <c r="D16" s="32">
+        <v>7.2663649999999996E-2</v>
+      </c>
+      <c r="E16" s="33">
+        <v>6.0620729999999998E-2</v>
+      </c>
+      <c r="F16" s="32">
+        <v>5.8273360000000003E-2</v>
+      </c>
+      <c r="G16" s="33">
+        <v>4.6545980000000001E-2</v>
+      </c>
+      <c r="H16" s="33">
+        <v>3.5304309999999998E-2</v>
+      </c>
+      <c r="I16" s="33">
+        <v>2.3138539999999999E-2</v>
+      </c>
+      <c r="J16" s="33">
+        <v>1.7298089999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="str">
+        <v>STATISTIC</v>
+      </c>
+      <c r="B17" s="33">
+        <v>248.6815</v>
+      </c>
+      <c r="C17" s="32">
+        <v>200.65549999999999</v>
+      </c>
+      <c r="D17" s="33">
+        <v>161.55459999999999</v>
+      </c>
+      <c r="E17" s="33">
+        <v>120.0774</v>
+      </c>
+      <c r="F17" s="32">
+        <v>91.57741</v>
+      </c>
+      <c r="G17" s="33">
+        <v>65.411550000000005</v>
+      </c>
+      <c r="H17" s="33">
+        <v>42.90728</v>
+      </c>
+      <c r="I17" s="33">
+        <v>24.72298</v>
+      </c>
+      <c r="J17" s="33">
+        <v>9.5055019999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="str">
+        <v>PVAL</v>
+      </c>
+      <c r="B18" s="33">
+        <v>4.6149060000000003E-14</v>
+      </c>
+      <c r="C18" s="32">
+        <v>8.8285820000000004E-11</v>
+      </c>
+      <c r="D18" s="33">
+        <v>1.818802E-8</v>
+      </c>
+      <c r="E18" s="33">
+        <v>9.7142379999999999E-6</v>
+      </c>
+      <c r="F18" s="33">
+        <v>2.172846E-4</v>
+      </c>
+      <c r="G18" s="33">
+        <v>3.7328639999999998E-3</v>
+      </c>
+      <c r="H18" s="33">
+        <v>3.5530069999999997E-2</v>
+      </c>
+      <c r="I18" s="33">
+        <v>0.16986409999999999</v>
+      </c>
+      <c r="J18" s="33">
+        <v>0.57533710000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="str">
+        <v>objective</v>
+      </c>
+      <c r="B19" s="33">
+        <v>3.875556</v>
+      </c>
+      <c r="C19" s="32">
+        <v>3.159929</v>
+      </c>
+      <c r="D19" s="33">
+        <v>2.571161</v>
+      </c>
+      <c r="E19" s="33">
+        <v>1.9315389999999999</v>
+      </c>
+      <c r="F19" s="33">
+        <v>1.4890639999999999</v>
+      </c>
+      <c r="G19" s="33">
+        <v>1.075258</v>
+      </c>
+      <c r="H19" s="33">
+        <v>0.71314040000000001</v>
+      </c>
+      <c r="I19" s="33">
+        <v>0.4155123</v>
+      </c>
+      <c r="J19" s="33">
+        <v>0.1615666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="str">
+        <v>EBIC</v>
+      </c>
+      <c r="B20" s="32">
+        <v>-226.29079999999999</v>
+      </c>
+      <c r="C20" s="33">
+        <v>-241.79329999999999</v>
+      </c>
+      <c r="D20" s="33">
+        <v>-212.6542</v>
+      </c>
+      <c r="E20" s="33">
+        <v>-188.74969999999999</v>
+      </c>
+      <c r="F20" s="33">
+        <v>-142.8058</v>
+      </c>
+      <c r="G20" s="33">
+        <v>-120.0189</v>
+      </c>
+      <c r="H20" s="33">
+        <v>-95.384469999999993</v>
+      </c>
+      <c r="I20" s="33">
+        <v>-70.887979999999999</v>
+      </c>
+      <c r="J20" s="33">
+        <v>-41.25367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="str">
+        <v>dof</v>
+      </c>
+      <c r="B21" s="33">
+        <v>103</v>
+      </c>
+      <c r="C21" s="33">
+        <v>88</v>
+      </c>
+      <c r="D21" s="33">
+        <v>74</v>
+      </c>
+      <c r="E21" s="33">
+        <v>61</v>
+      </c>
+      <c r="F21" s="33">
+        <v>49</v>
+      </c>
+      <c r="G21" s="33">
+        <v>38</v>
+      </c>
+      <c r="H21" s="33">
+        <v>28</v>
+      </c>
+      <c r="I21" s="33">
+        <v>19</v>
+      </c>
+      <c r="J21" s="33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="str">
+        <v>chi</v>
+      </c>
+      <c r="B22" s="33">
+        <v>215.62649999999999</v>
+      </c>
+      <c r="C22" s="33">
+        <v>135.7671</v>
+      </c>
+      <c r="D22" s="33">
+        <v>104.8398</v>
+      </c>
+      <c r="E22" s="33">
+        <v>72.968289999999996</v>
+      </c>
+      <c r="F22" s="33">
+        <v>67.426689999999994</v>
+      </c>
+      <c r="G22" s="33">
+        <v>43.018590000000003</v>
+      </c>
+      <c r="H22" s="33">
+        <v>24.7484</v>
+      </c>
+      <c r="I22" s="33">
+        <v>10.630750000000001</v>
+      </c>
+      <c r="J22" s="33">
+        <v>5.9413869999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="str">
+        <v>RMSEA</v>
+      </c>
+      <c r="B23" s="33">
+        <v>0.1385094</v>
+      </c>
+      <c r="C23" s="33">
+        <v>0.13170570000000001</v>
+      </c>
+      <c r="D23" s="33">
+        <v>0.12656049999999999</v>
+      </c>
+      <c r="E23" s="33">
+        <v>0.11435299</v>
+      </c>
+      <c r="F23" s="33">
+        <v>0.1082259</v>
+      </c>
+      <c r="G23" s="33">
+        <v>9.8444589999999998E-2</v>
+      </c>
+      <c r="H23" s="33">
+        <v>8.4278889999999995E-2</v>
+      </c>
+      <c r="I23" s="33">
+        <v>6.2736749999999994E-2</v>
+      </c>
+      <c r="J23" s="33">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
